--- a/demo/Estee/data/allocation.xlsx
+++ b/demo/Estee/data/allocation.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Desktop/Artefact/Estee/supply-chain-planning/demo/Estee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65346BE-F810-2944-8849-932B05033254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFCE32C-95EC-3C46-93AA-727CB39269C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="28">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,7 +277,77 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -624,12 +695,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B51F0-D878-424A-814B-62999EB11B07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -642,8 +728,8 @@
     <col min="7" max="7" width="14.5" style="4" customWidth="1"/>
     <col min="8" max="10" width="8.83203125" style="4"/>
     <col min="11" max="11" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="4"/>
+    <col min="12" max="13" width="11" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1">
@@ -683,7 +769,7 @@
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13848,12 +13934,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203A9A2A-D65C-134B-A431-F5298C0BA20B}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13863,7 +13949,7 @@
     <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -13875,7 +13961,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="16" customFormat="1">
+    <row r="2" spans="1:34" s="16" customFormat="1">
       <c r="A2" s="17">
         <v>0.80241478266955968</v>
       </c>
@@ -13914,7 +14000,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="1:33" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:34" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -14014,8 +14100,11 @@
       <c r="AG3" s="8">
         <v>44968</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="8">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -14115,8 +14204,11 @@
       <c r="AG4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -14216,8 +14308,11 @@
       <c r="AG5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -14317,8 +14412,11 @@
       <c r="AG6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -14418,8 +14516,11 @@
       <c r="AG7" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -14519,8 +14620,11 @@
       <c r="AG8" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -14620,8 +14724,11 @@
       <c r="AG9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -14721,8 +14828,11 @@
       <c r="AG10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -14822,8 +14932,11 @@
       <c r="AG11" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -14923,8 +15036,11 @@
       <c r="AG12" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -15024,8 +15140,11 @@
       <c r="AG13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -15125,8 +15244,11 @@
       <c r="AG14" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -15226,23 +15348,29 @@
       <c r="AG15" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="AH15" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E4:AG15">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="stockout">
+  <conditionalFormatting sqref="E4:AH15">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="near stockout">
+      <formula>NOT(ISERROR(SEARCH("near stockout",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="stockout">
       <formula>NOT(ISERROR(SEARCH("stockout",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="manufacture">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="manufacture">
       <formula>NOT(ISERROR(SEARCH("manufacture",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="hub">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="hub">
       <formula>NOT(ISERROR(SEARCH("hub",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="risk">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="risk">
       <formula>NOT(ISERROR(SEARCH("risk",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="full">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="full">
       <formula>NOT(ISERROR(SEARCH("full",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
